--- a/biology/Botanique/Balsamocarpon_brevifolium/Balsamocarpon_brevifolium.xlsx
+++ b/biology/Botanique/Balsamocarpon_brevifolium/Balsamocarpon_brevifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balsamocarpon brevifolium est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire du Chili. C'est l'unique espèce acceptée du genre Balsamocarpon (genre monotypique).
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Balsamocarpon brevifolium se limite au centre et au sud de la région d'Atacama  et au nord de celle de  Coquimbo. L'espèce est considérée comme vulnérable dans les deux régions. Malgré son statut de conservation, on l'utilise encore pour faire du charbon de bois ; autrefois, les fruits étaient récoltés pour en extraire du tanin[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Balsamocarpon brevifolium se limite au centre et au sud de la région d'Atacama  et au nord de celle de  Coquimbo. L'espèce est considérée comme vulnérable dans les deux régions. Malgré son statut de conservation, on l'utilise encore pour faire du charbon de bois ; autrefois, les fruits étaient récoltés pour en extraire du tanin.
 </t>
         </is>
       </c>
